--- a/Spatial_data/UVic/Harrop-Archibald 2008/Site Descriptions 2007/Site Descriptions 2007 Metadata.xlsx
+++ b/Spatial_data/UVic/Harrop-Archibald 2008/Site Descriptions 2007/Site Descriptions 2007 Metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnk\Documents\GitHub\Github Shackelford-lab\Shackelford-lab\Spatial_data\UVic\Harrop-Archibald 2008\Site Descriptions 2008\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnk\Documents\GitHub\Github Shackelford-lab\Shackelford-lab\Spatial_data\UVic\Harrop-Archibald 2008\Site Descriptions 2007\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68236898-8669-4D40-A1A2-10CF0644DF44}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D229FEDB-8BED-4F46-83E8-A429FCAF8348}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="615" windowWidth="14610" windowHeight="11565" xr2:uid="{6934027C-8984-4F11-9C55-B9A1F75C2751}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{6934027C-8984-4F11-9C55-B9A1F75C2751}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="3" r:id="rId1"/>
@@ -1764,9 +1764,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1775,6 +1772,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Attribute name" xfId="1" xr:uid="{EF67C494-AC27-4B09-985E-08901D918A3A}"/>
@@ -2093,8 +2093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC2632A-81E2-4372-B21A-08C497B1BE35}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,13 +2106,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2196,23 +2196,23 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="6" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:6" s="6" customFormat="1" ht="72.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>400</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2230,7 +2230,7 @@
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6" s="6" customFormat="1" ht="72.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>403</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2248,7 +2248,7 @@
       <c r="F11"/>
     </row>
     <row r="12" spans="1:6" s="6" customFormat="1" ht="84.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>406</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2266,264 +2266,264 @@
       <c r="F12"/>
     </row>
     <row r="13" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="6" customFormat="1" ht="168.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>417</v>
       </c>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:6" ht="96.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="96.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="108.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="84.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:5" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>409</v>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -2563,7 +2563,7 @@
       <c r="C1" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>72</v>
       </c>
       <c r="E1" t="s">
@@ -2586,7 +2586,7 @@
       <c r="C2" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>169</v>
       </c>
       <c r="E2" t="s">
@@ -2606,7 +2606,7 @@
       <c r="C3" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>173</v>
       </c>
       <c r="E3" t="s">
@@ -2626,7 +2626,7 @@
       <c r="C4" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>175</v>
       </c>
       <c r="E4" t="s">
@@ -2646,7 +2646,7 @@
       <c r="C5" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>176</v>
       </c>
       <c r="E5" t="s">
@@ -2666,7 +2666,7 @@
       <c r="C6" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>179</v>
       </c>
       <c r="E6" t="s">
@@ -2686,7 +2686,7 @@
       <c r="C7" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>181</v>
       </c>
       <c r="E7" t="s">
@@ -2706,7 +2706,7 @@
       <c r="C8" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>183</v>
       </c>
       <c r="E8" t="s">
@@ -2726,7 +2726,7 @@
       <c r="C9" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>185</v>
       </c>
       <c r="E9" t="s">
@@ -2746,7 +2746,7 @@
       <c r="C10" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>187</v>
       </c>
       <c r="E10" t="s">
@@ -2766,7 +2766,7 @@
       <c r="C11" t="s">
         <v>188</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>189</v>
       </c>
       <c r="E11" t="s">
@@ -2786,7 +2786,7 @@
       <c r="C12" t="s">
         <v>190</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>191</v>
       </c>
       <c r="E12" t="s">
@@ -2806,7 +2806,7 @@
       <c r="C13" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>193</v>
       </c>
       <c r="E13" t="s">
@@ -2826,7 +2826,7 @@
       <c r="C14" t="s">
         <v>195</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>194</v>
       </c>
       <c r="E14" t="s">
@@ -2846,7 +2846,7 @@
       <c r="C15" t="s">
         <v>196</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>197</v>
       </c>
       <c r="E15" t="s">
@@ -2866,7 +2866,7 @@
       <c r="C16" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>199</v>
       </c>
       <c r="E16" t="s">
@@ -2886,7 +2886,7 @@
       <c r="C17" t="s">
         <v>200</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>201</v>
       </c>
       <c r="E17" t="s">
@@ -2906,7 +2906,7 @@
       <c r="C18" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>203</v>
       </c>
       <c r="E18" t="s">
@@ -2926,7 +2926,7 @@
       <c r="C19" t="s">
         <v>205</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>204</v>
       </c>
       <c r="E19" t="s">
@@ -2946,7 +2946,7 @@
       <c r="C20" t="s">
         <v>206</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>207</v>
       </c>
       <c r="E20" t="s">
@@ -2966,7 +2966,7 @@
       <c r="C21" t="s">
         <v>208</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>209</v>
       </c>
       <c r="E21" t="s">
@@ -2986,7 +2986,7 @@
       <c r="C22" t="s">
         <v>210</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>211</v>
       </c>
       <c r="E22" t="s">
@@ -3006,7 +3006,7 @@
       <c r="C23" t="s">
         <v>213</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>212</v>
       </c>
       <c r="E23" t="s">
@@ -3026,7 +3026,7 @@
       <c r="C24" t="s">
         <v>214</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>215</v>
       </c>
       <c r="E24" t="s">
@@ -3046,7 +3046,7 @@
       <c r="C25" t="s">
         <v>216</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>217</v>
       </c>
       <c r="E25" t="s">
@@ -3066,7 +3066,7 @@
       <c r="C26" t="s">
         <v>218</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>219</v>
       </c>
       <c r="E26" t="s">
@@ -3086,7 +3086,7 @@
       <c r="C27" t="s">
         <v>220</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>221</v>
       </c>
       <c r="E27" t="s">
@@ -3106,7 +3106,7 @@
       <c r="C28" t="s">
         <v>222</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>82</v>
       </c>
       <c r="E28" t="s">
@@ -3126,7 +3126,7 @@
       <c r="C29" t="s">
         <v>223</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>224</v>
       </c>
       <c r="E29" t="s">
@@ -3146,7 +3146,7 @@
       <c r="C30" t="s">
         <v>225</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>226</v>
       </c>
       <c r="E30" t="s">
@@ -3166,7 +3166,7 @@
       <c r="C31" t="s">
         <v>227</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>228</v>
       </c>
       <c r="E31" t="s">
@@ -3186,7 +3186,7 @@
       <c r="C32" t="s">
         <v>229</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>230</v>
       </c>
       <c r="E32" t="s">
@@ -3206,7 +3206,7 @@
       <c r="C33" t="s">
         <v>231</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>232</v>
       </c>
       <c r="E33" t="s">
@@ -3226,7 +3226,7 @@
       <c r="C34" t="s">
         <v>233</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>234</v>
       </c>
       <c r="E34" t="s">
@@ -3246,7 +3246,7 @@
       <c r="C35" t="s">
         <v>235</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>236</v>
       </c>
       <c r="E35" t="s">
@@ -3266,7 +3266,7 @@
       <c r="C36" t="s">
         <v>237</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>238</v>
       </c>
       <c r="E36" t="s">
@@ -3286,7 +3286,7 @@
       <c r="C37" t="s">
         <v>239</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>240</v>
       </c>
       <c r="E37" t="s">
@@ -3306,7 +3306,7 @@
       <c r="C38" t="s">
         <v>241</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>242</v>
       </c>
       <c r="E38" t="s">
@@ -3326,7 +3326,7 @@
       <c r="C39" t="s">
         <v>243</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>244</v>
       </c>
       <c r="E39" t="s">
@@ -3346,7 +3346,7 @@
       <c r="C40" t="s">
         <v>245</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>246</v>
       </c>
       <c r="E40" t="s">
@@ -3366,7 +3366,7 @@
       <c r="C41" t="s">
         <v>247</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>248</v>
       </c>
       <c r="E41" t="s">
@@ -3386,7 +3386,7 @@
       <c r="C42" t="s">
         <v>249</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>250</v>
       </c>
       <c r="E42" t="s">
@@ -3406,7 +3406,7 @@
       <c r="C43" t="s">
         <v>251</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>252</v>
       </c>
       <c r="E43" t="s">
@@ -3426,7 +3426,7 @@
       <c r="C44" t="s">
         <v>253</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>254</v>
       </c>
       <c r="E44" t="s">
@@ -3446,7 +3446,7 @@
       <c r="C45" t="s">
         <v>255</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>256</v>
       </c>
       <c r="E45" t="s">
@@ -3466,7 +3466,7 @@
       <c r="C46" t="s">
         <v>257</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="9" t="s">
         <v>258</v>
       </c>
       <c r="E46" t="s">
@@ -3483,7 +3483,7 @@
       <c r="C47" t="s">
         <v>259</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>260</v>
       </c>
       <c r="E47" t="s">
@@ -3503,7 +3503,7 @@
       <c r="C48" t="s">
         <v>102</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>261</v>
       </c>
       <c r="E48" t="s">
@@ -3523,7 +3523,7 @@
       <c r="C49" t="s">
         <v>262</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="9" t="s">
         <v>263</v>
       </c>
       <c r="E49" t="s">
@@ -3543,7 +3543,7 @@
       <c r="C50" t="s">
         <v>264</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>265</v>
       </c>
       <c r="E50" t="s">
@@ -3563,7 +3563,7 @@
       <c r="C51" t="s">
         <v>266</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="9" t="s">
         <v>267</v>
       </c>
       <c r="E51" t="s">
@@ -3583,7 +3583,7 @@
       <c r="C52" t="s">
         <v>268</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="9" t="s">
         <v>269</v>
       </c>
       <c r="E52" t="s">
@@ -3603,7 +3603,7 @@
       <c r="C53" t="s">
         <v>271</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>272</v>
       </c>
       <c r="E53" t="s">
@@ -3623,7 +3623,7 @@
       <c r="C54" t="s">
         <v>273</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="9" t="s">
         <v>274</v>
       </c>
       <c r="E54" t="s">
@@ -3643,7 +3643,7 @@
       <c r="C55" t="s">
         <v>275</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="9" t="s">
         <v>276</v>
       </c>
       <c r="E55" t="s">
@@ -3663,7 +3663,7 @@
       <c r="C56" t="s">
         <v>277</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="9" t="s">
         <v>278</v>
       </c>
       <c r="E56" t="s">
@@ -3683,7 +3683,7 @@
       <c r="C57" t="s">
         <v>279</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="9" t="s">
         <v>280</v>
       </c>
       <c r="E57" t="s">
@@ -3703,7 +3703,7 @@
       <c r="C58" t="s">
         <v>281</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="9" t="s">
         <v>282</v>
       </c>
       <c r="E58" t="s">
@@ -3723,7 +3723,7 @@
       <c r="C59" t="s">
         <v>283</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="9" t="s">
         <v>284</v>
       </c>
       <c r="E59" t="s">
@@ -3743,7 +3743,7 @@
       <c r="C60" t="s">
         <v>285</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="9" t="s">
         <v>286</v>
       </c>
       <c r="E60" t="s">
@@ -3763,7 +3763,7 @@
       <c r="C61" t="s">
         <v>287</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="9" t="s">
         <v>288</v>
       </c>
       <c r="E61" t="s">
@@ -3783,7 +3783,7 @@
       <c r="C62" t="s">
         <v>289</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="9" t="s">
         <v>290</v>
       </c>
       <c r="E62" t="s">
@@ -3803,7 +3803,7 @@
       <c r="C63" t="s">
         <v>291</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="9" t="s">
         <v>292</v>
       </c>
       <c r="E63" t="s">
@@ -3823,7 +3823,7 @@
       <c r="C64" t="s">
         <v>293</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="9" t="s">
         <v>294</v>
       </c>
       <c r="E64" t="s">
@@ -3843,7 +3843,7 @@
       <c r="C65" t="s">
         <v>295</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="9" t="s">
         <v>296</v>
       </c>
       <c r="E65" t="s">
@@ -3863,7 +3863,7 @@
       <c r="C66" t="s">
         <v>297</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="9" t="s">
         <v>298</v>
       </c>
       <c r="E66" t="s">
@@ -3883,7 +3883,7 @@
       <c r="C67" t="s">
         <v>299</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="9" t="s">
         <v>300</v>
       </c>
       <c r="E67" t="s">
@@ -3903,7 +3903,7 @@
       <c r="C68" t="s">
         <v>301</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="9" t="s">
         <v>302</v>
       </c>
       <c r="E68" t="s">
@@ -3923,7 +3923,7 @@
       <c r="C69" t="s">
         <v>303</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="9" t="s">
         <v>304</v>
       </c>
       <c r="E69" t="s">
@@ -3943,7 +3943,7 @@
       <c r="C70" t="s">
         <v>305</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="9" t="s">
         <v>306</v>
       </c>
       <c r="E70" t="s">
@@ -3963,7 +3963,7 @@
       <c r="C71" t="s">
         <v>307</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="9" t="s">
         <v>308</v>
       </c>
       <c r="E71" t="s">
@@ -3983,7 +3983,7 @@
       <c r="C72" t="s">
         <v>309</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="9" t="s">
         <v>310</v>
       </c>
       <c r="E72" t="s">
@@ -4020,7 +4020,7 @@
       <c r="C74" t="s">
         <v>311</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="9" t="s">
         <v>312</v>
       </c>
       <c r="E74" t="s">
@@ -4040,7 +4040,7 @@
       <c r="C75" t="s">
         <v>313</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="9" t="s">
         <v>314</v>
       </c>
       <c r="E75" t="s">
@@ -4077,7 +4077,7 @@
       <c r="C77" t="s">
         <v>315</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="9" t="s">
         <v>134</v>
       </c>
       <c r="E77" t="s">
@@ -4097,7 +4097,7 @@
       <c r="C78" t="s">
         <v>316</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D78" s="9" t="s">
         <v>317</v>
       </c>
       <c r="E78" t="s">
@@ -4117,7 +4117,7 @@
       <c r="C79" t="s">
         <v>318</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="9" t="s">
         <v>319</v>
       </c>
       <c r="E79" t="s">
@@ -4137,7 +4137,7 @@
       <c r="C80" t="s">
         <v>320</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="9" t="s">
         <v>321</v>
       </c>
       <c r="E80" t="s">
@@ -4157,7 +4157,7 @@
       <c r="C81" t="s">
         <v>322</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="9" t="s">
         <v>323</v>
       </c>
       <c r="E81" t="s">
@@ -4177,7 +4177,7 @@
       <c r="C82" t="s">
         <v>324</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D82" s="9" t="s">
         <v>325</v>
       </c>
       <c r="E82" t="s">
@@ -4197,7 +4197,7 @@
       <c r="C83" t="s">
         <v>326</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="9" t="s">
         <v>327</v>
       </c>
       <c r="E83" t="s">
@@ -4217,7 +4217,7 @@
       <c r="C84" t="s">
         <v>328</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="9" t="s">
         <v>329</v>
       </c>
       <c r="E84" t="s">
@@ -4237,7 +4237,7 @@
       <c r="C85" t="s">
         <v>330</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="9" t="s">
         <v>331</v>
       </c>
       <c r="E85" t="s">
@@ -4257,7 +4257,7 @@
       <c r="C86" t="s">
         <v>332</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="9" t="s">
         <v>333</v>
       </c>
       <c r="E86" t="s">
@@ -4277,7 +4277,7 @@
       <c r="C87" t="s">
         <v>334</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="9" t="s">
         <v>335</v>
       </c>
       <c r="E87" t="s">
@@ -4297,7 +4297,7 @@
       <c r="C88" t="s">
         <v>336</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D88" s="9" t="s">
         <v>337</v>
       </c>
       <c r="E88" t="s">
@@ -4317,7 +4317,7 @@
       <c r="C89" t="s">
         <v>338</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="9" t="s">
         <v>339</v>
       </c>
       <c r="E89" t="s">
@@ -4337,7 +4337,7 @@
       <c r="C90" t="s">
         <v>340</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D90" s="9" t="s">
         <v>341</v>
       </c>
       <c r="E90" t="s">
@@ -4357,7 +4357,7 @@
       <c r="C91" t="s">
         <v>342</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="9" t="s">
         <v>343</v>
       </c>
       <c r="E91" t="s">
@@ -4377,7 +4377,7 @@
       <c r="C92" t="s">
         <v>344</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="9" t="s">
         <v>345</v>
       </c>
       <c r="E92" t="s">
@@ -4397,7 +4397,7 @@
       <c r="C93" t="s">
         <v>346</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="9" t="s">
         <v>347</v>
       </c>
       <c r="E93" t="s">
@@ -4417,7 +4417,7 @@
       <c r="C94" t="s">
         <v>348</v>
       </c>
-      <c r="D94" s="10" t="s">
+      <c r="D94" s="9" t="s">
         <v>349</v>
       </c>
       <c r="E94" t="s">
@@ -4437,7 +4437,7 @@
       <c r="C95" t="s">
         <v>350</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="D95" s="9" t="s">
         <v>351</v>
       </c>
       <c r="E95" t="s">
@@ -4457,7 +4457,7 @@
       <c r="C96" t="s">
         <v>352</v>
       </c>
-      <c r="D96" s="10" t="s">
+      <c r="D96" s="9" t="s">
         <v>353</v>
       </c>
       <c r="E96" t="s">
@@ -4477,7 +4477,7 @@
       <c r="C97" t="s">
         <v>354</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="D97" s="9" t="s">
         <v>355</v>
       </c>
       <c r="E97" t="s">
@@ -4497,7 +4497,7 @@
       <c r="C98" t="s">
         <v>356</v>
       </c>
-      <c r="D98" s="10" t="s">
+      <c r="D98" s="9" t="s">
         <v>357</v>
       </c>
       <c r="E98" t="s">
@@ -4517,7 +4517,7 @@
       <c r="C99" t="s">
         <v>358</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="D99" s="9" t="s">
         <v>359</v>
       </c>
       <c r="E99" t="s">
@@ -4537,7 +4537,7 @@
       <c r="C100" t="s">
         <v>360</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="D100" s="9" t="s">
         <v>361</v>
       </c>
       <c r="E100" t="s">
@@ -4557,7 +4557,7 @@
       <c r="C101" t="s">
         <v>362</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="D101" s="9" t="s">
         <v>363</v>
       </c>
       <c r="E101" t="s">
@@ -4577,7 +4577,7 @@
       <c r="C102" t="s">
         <v>364</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="D102" s="9" t="s">
         <v>365</v>
       </c>
       <c r="E102" t="s">
@@ -4597,7 +4597,7 @@
       <c r="C103" t="s">
         <v>366</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="D103" s="9" t="s">
         <v>367</v>
       </c>
       <c r="E103" t="s">
@@ -4617,7 +4617,7 @@
       <c r="C104" t="s">
         <v>368</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D104" s="9" t="s">
         <v>369</v>
       </c>
       <c r="E104" t="s">
@@ -4637,7 +4637,7 @@
       <c r="C105" t="s">
         <v>370</v>
       </c>
-      <c r="D105" s="10" t="s">
+      <c r="D105" s="9" t="s">
         <v>371</v>
       </c>
       <c r="E105" t="s">
@@ -4657,7 +4657,7 @@
       <c r="C106" t="s">
         <v>372</v>
       </c>
-      <c r="D106" s="10" t="s">
+      <c r="D106" s="9" t="s">
         <v>373</v>
       </c>
       <c r="E106" t="s">
@@ -4677,7 +4677,7 @@
       <c r="C107" t="s">
         <v>374</v>
       </c>
-      <c r="D107" s="10" t="s">
+      <c r="D107" s="9" t="s">
         <v>375</v>
       </c>
       <c r="E107" t="s">
@@ -4697,7 +4697,7 @@
       <c r="C108" t="s">
         <v>376</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D108" s="9" t="s">
         <v>377</v>
       </c>
       <c r="E108" t="s">
@@ -4717,7 +4717,7 @@
       <c r="C109" t="s">
         <v>378</v>
       </c>
-      <c r="D109" s="10" t="s">
+      <c r="D109" s="9" t="s">
         <v>379</v>
       </c>
       <c r="E109" t="s">
@@ -4737,7 +4737,7 @@
       <c r="C110" t="s">
         <v>380</v>
       </c>
-      <c r="D110" s="10" t="s">
+      <c r="D110" s="9" t="s">
         <v>381</v>
       </c>
       <c r="E110" t="s">
@@ -4757,7 +4757,7 @@
       <c r="C111" t="s">
         <v>382</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="D111" s="9" t="s">
         <v>383</v>
       </c>
       <c r="E111" t="s">
@@ -4777,7 +4777,7 @@
       <c r="C112" t="s">
         <v>384</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D112" s="9" t="s">
         <v>385</v>
       </c>
       <c r="E112" t="s">
@@ -4797,7 +4797,7 @@
       <c r="C113" t="s">
         <v>386</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D113" s="9" t="s">
         <v>387</v>
       </c>
       <c r="E113" t="s">
@@ -4817,7 +4817,7 @@
       <c r="C114" t="s">
         <v>388</v>
       </c>
-      <c r="D114" s="10" t="s">
+      <c r="D114" s="9" t="s">
         <v>389</v>
       </c>
       <c r="E114" t="s">
@@ -4837,7 +4837,7 @@
       <c r="C115" t="s">
         <v>390</v>
       </c>
-      <c r="D115" s="10" t="s">
+      <c r="D115" s="9" t="s">
         <v>391</v>
       </c>
       <c r="E115" t="s">
